--- a/src/target/test-classes/input_cuocHop_test.xlsx
+++ b/src/target/test-classes/input_cuocHop_test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
   <si>
     <t>Tiêu đề</t>
   </si>
@@ -36,9 +36,6 @@
     <t>Địa điểm</t>
   </si>
   <si>
-    <t>Sprint 1</t>
-  </si>
-  <si>
     <t>abc</t>
   </si>
   <si>
@@ -46,6 +43,18 @@
   </si>
   <si>
     <t>8/8/2024</t>
+  </si>
+  <si>
+    <t>Sprint 100</t>
+  </si>
+  <si>
+    <t>Sprint 101</t>
+  </si>
+  <si>
+    <t>Sprint 102</t>
+  </si>
+  <si>
+    <t>Sprint 103</t>
   </si>
 </sst>
 </file>
@@ -386,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -422,10 +431,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
       </c>
       <c r="C2" s="1">
         <v>0.35416666666666669</v>
@@ -434,10 +443,70 @@
         <v>0.40625</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.40625</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.40625</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.40625</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
